--- a/data/trans_bre/P8_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P8_2_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,72; 19,29</t>
+          <t>11,69; 19,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,55; 20,09</t>
+          <t>11,58; 20,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,67; 20,08</t>
+          <t>10,51; 20,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,14; 23,68</t>
+          <t>14,08; 23,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,59; 69,21</t>
+          <t>36,76; 70,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,18; 65,51</t>
+          <t>32,34; 65,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,78; 64,99</t>
+          <t>29,78; 65,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,88; 69,99</t>
+          <t>36,11; 72,89</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,11; 3,9</t>
+          <t>0,16; 3,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,74</t>
+          <t>1,57; 5,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 6,57</t>
+          <t>2,34; 6,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 2,34</t>
+          <t>-7,34; 2,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,62; 65,09</t>
+          <t>1,74; 62,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,09; 73,33</t>
+          <t>15,17; 73,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,69; 79,09</t>
+          <t>22,72; 80,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,15; 17,76</t>
+          <t>-37,24; 17,91</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 7,68</t>
+          <t>0,53; 7,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 4,62</t>
+          <t>-3,32; 4,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 4,31</t>
+          <t>-3,02; 4,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 4,73</t>
+          <t>-0,15; 4,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,18; 156,24</t>
+          <t>2,16; 168,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,81; 81,22</t>
+          <t>-33,39; 80,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-33,1; 76,72</t>
+          <t>-31,0; 69,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 81,56</t>
+          <t>-2,62; 85,38</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,68; 11,41</t>
+          <t>7,43; 11,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,09; 12,1</t>
+          <t>8,15; 12,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,23; 10,2</t>
+          <t>6,37; 10,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 7,87</t>
+          <t>0,98; 7,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>52,21; 86,49</t>
+          <t>50,66; 86,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,37; 82,44</t>
+          <t>49,33; 84,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,8; 75,12</t>
+          <t>40,95; 74,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,71; 51,02</t>
+          <t>2,77; 51,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P8_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P8_2_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,69; 19,43</t>
+          <t>11,78; 19,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,58; 20,04</t>
+          <t>11,53; 20,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,51; 20,18</t>
+          <t>10,46; 20,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,76; 70,59</t>
+          <t>36,99; 70,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,34; 65,14</t>
+          <t>32,98; 65,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,78; 65,87</t>
+          <t>28,6; 64,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 3,71</t>
+          <t>0,2; 3,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,86</t>
+          <t>1,69; 5,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 6,69</t>
+          <t>2,47; 6,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,74; 62,42</t>
+          <t>3,3; 65,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,17; 73,62</t>
+          <t>16,67; 74,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,72; 80,28</t>
+          <t>23,64; 75,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 7,68</t>
+          <t>0,44; 7,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 4,56</t>
+          <t>-3,05; 4,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 4,06</t>
+          <t>-2,91; 4,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 168,76</t>
+          <t>3,99; 158,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-33,39; 80,67</t>
+          <t>-32,0; 84,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-31,0; 69,38</t>
+          <t>-29,95; 79,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,43; 11,11</t>
+          <t>7,29; 10,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,15; 12,19</t>
+          <t>8,17; 12,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,37; 10,32</t>
+          <t>6,41; 10,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,66; 86,13</t>
+          <t>48,76; 83,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,33; 84,43</t>
+          <t>48,96; 83,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>40,95; 74,6</t>
+          <t>41,56; 74,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/P8_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P8_2_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,78; 19,38</t>
+          <t>11,72; 19,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,53; 20,14</t>
+          <t>11,55; 20,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,46; 20,26</t>
+          <t>10,67; 20,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,08; 23,7</t>
+          <t>14,14; 23,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,99; 70,16</t>
+          <t>36,59; 69,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,98; 65,82</t>
+          <t>32,18; 65,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,6; 64,95</t>
+          <t>29,78; 64,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>36,11; 72,89</t>
+          <t>34,88; 69,99</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 3,86</t>
+          <t>0,11; 3,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,8</t>
+          <t>1,57; 5,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 6,46</t>
+          <t>2,18; 6,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 2,33</t>
+          <t>-8,24; 2,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 65,32</t>
+          <t>0,62; 65,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,67; 74,58</t>
+          <t>16,09; 73,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,64; 75,0</t>
+          <t>20,69; 79,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,24; 17,91</t>
+          <t>-38,15; 17,76</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 7,46</t>
+          <t>0,67; 7,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 4,48</t>
+          <t>-2,97; 4,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 4,58</t>
+          <t>-3,01; 4,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 4,74</t>
+          <t>-0,34; 4,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,99; 158,58</t>
+          <t>7,18; 156,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,0; 84,12</t>
+          <t>-31,81; 81,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-29,95; 79,77</t>
+          <t>-33,1; 76,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 85,38</t>
+          <t>-5,06; 81,56</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,29; 10,9</t>
+          <t>7,68; 11,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,17; 12,15</t>
+          <t>8,09; 12,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,41; 10,35</t>
+          <t>6,23; 10,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 7,93</t>
+          <t>1,64; 7,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,76; 83,12</t>
+          <t>52,21; 86,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,96; 83,58</t>
+          <t>48,37; 82,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,56; 74,58</t>
+          <t>39,8; 75,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,77; 51,29</t>
+          <t>6,71; 51,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P8_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P8_2_R-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,99</t>
+          <t>19,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>52,73%</t>
+          <t>53,38%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,14; 23,68</t>
+          <t>14,0; 23,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,88; 69,99</t>
+          <t>35,22; 71,77</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-8,78</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,32%</t>
+          <t>-39,64%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 2,34</t>
+          <t>-32,94; 1,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,15; 17,76</t>
+          <t>-74,26; 9,91</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>34,01%</t>
+          <t>34,68%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 4,73</t>
+          <t>-0,3; 4,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 81,56</t>
+          <t>-5,85; 80,89</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>-0,75%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 7,87</t>
+          <t>-16,7; 6,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,71; 51,02</t>
+          <t>-46,59; 45,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P8_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P8_2_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,72; 19,29</t>
+          <t>11,86; 19,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,55; 20,09</t>
+          <t>11,31; 20,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,67; 20,08</t>
+          <t>10,58; 19,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,0; 23,43</t>
+          <t>13,69; 23,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,59; 69,21</t>
+          <t>36,93; 71,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,18; 65,51</t>
+          <t>31,96; 65,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,78; 64,99</t>
+          <t>29,24; 64,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,22; 71,77</t>
+          <t>34,93; 72,61</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,11; 3,9</t>
+          <t>0,09; 3,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,74</t>
+          <t>1,71; 5,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 6,57</t>
+          <t>2,2; 6,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,94; 1,38</t>
+          <t>-36,44; 1,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,62; 65,09</t>
+          <t>1,14; 64,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,09; 73,33</t>
+          <t>16,94; 75,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,69; 79,09</t>
+          <t>21,55; 75,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-74,26; 9,91</t>
+          <t>-73,75; 12,2</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 7,68</t>
+          <t>0,38; 7,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 4,62</t>
+          <t>-2,87; 4,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 4,31</t>
+          <t>-2,8; 4,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 4,63</t>
+          <t>-0,22; 4,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,18; 156,24</t>
+          <t>4,3; 155,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,81; 81,22</t>
+          <t>-33,31; 90,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-33,1; 76,72</t>
+          <t>-28,7; 69,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 80,89</t>
+          <t>-2,7; 92,87</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,68; 11,41</t>
+          <t>7,52; 11,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,09; 12,1</t>
+          <t>8,1; 12,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,23; 10,2</t>
+          <t>6,48; 10,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 6,85</t>
+          <t>-19,87; 6,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>52,21; 86,49</t>
+          <t>50,68; 84,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,37; 82,44</t>
+          <t>49,3; 85,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,8; 75,12</t>
+          <t>41,65; 74,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-46,59; 45,02</t>
+          <t>-48,96; 44,9</t>
         </is>
       </c>
     </row>
